--- a/biology/Botanique/Square_Van-Vollenhoven/Square_Van-Vollenhoven.xlsx
+++ b/biology/Botanique/Square_Van-Vollenhoven/Square_Van-Vollenhoven.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Van-Vollenhoven est un espace vert situé dans le quartier du Bel-Air du 12e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par le boulevard Poniatowski, le 5, rue Marcel-Dubois et la place Édouard-Renard.
 Il est desservi par la ligne de métro 8 à la station Porte Dorée et par la ligne 3a du tramway d'Île-de-France à l'arrêt Porte Dorée.
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du square fait référence à l'officier et administrateur colonial français Joost Van Vollenhoven (1877-1918).
 </t>
@@ -576,10 +592,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Créé en 1937, le square a une superficie de 3 687 m2. 
-Il possède une fontaine à gradins, décorée d'une mosaïque, construite à l'occasion de l'Exposition coloniale organisée à la porte Dorée à Paris, en 1931[1]. En 1949 fut érigée une statue de Louis Baudry représentant le général français Jean-Baptiste Marchand (1863-1934). Elle fut détruite en 1983[2],[N 1].
+Il possède une fontaine à gradins, décorée d'une mosaïque, construite à l'occasion de l'Exposition coloniale organisée à la porte Dorée à Paris, en 1931. En 1949 fut érigée une statue de Louis Baudry représentant le général français Jean-Baptiste Marchand (1863-1934). Elle fut détruite en 1983,[N 1].
 			Vue du square Van-Vollenhoven.
 </t>
         </is>
